--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:03:55+00:00</t>
+    <t>2025-12-18T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:46+00:00</t>
+    <t>2025-12-18T16:17:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Bundle</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Bundle|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -883,7 +883,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient}
+    <t xml:space="preserve">Patient {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>Bundle.entry:DUIPatientINS.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins}
+    <t xml:space="preserve">Patient {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1110,7 +1110,7 @@
     <t>Bundle.entry:DUIOrganization.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization}
+    <t xml:space="preserve">Organization {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-organization|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour}
+    <t xml:space="preserve">Encounter {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-sejour|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1347,7 +1347,7 @@
     <t>Bundle.entry:DUIEncounterEvenement.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement}
+    <t xml:space="preserve">Encounter {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-encounter-evenement|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1453,7 +1453,7 @@
     <t>Bundle.entry:DUIPractitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner}
+    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1571,7 +1571,7 @@
     <t>Bundle.entry:DUIPractitionerRole.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role}
+    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1683,7 +1683,7 @@
     <t>Bundle.entry:DUITransportProfessionnel.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport-professionnel}
+    <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport-professionnel|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1798,7 +1798,7 @@
     <t>Bundle.entry:DUITransportUsager.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport-usager}
+    <t xml:space="preserve">Task {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-task-transport-usager|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1904,7 +1904,7 @@
     <t>Bundle.entry:DUIDocumentReference.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference}
+    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2029,7 +2029,7 @@
 QuestionnaireAnswers</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionnaireResponse {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response}
+    <t xml:space="preserve">QuestionnaireResponse {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2460,7 +2460,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.08984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.59765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
